--- a/PLC Test/bin/Debug/测试流程/test.xlsx
+++ b/PLC Test/bin/Debug/测试流程/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\source\repos\PLC Test\PLC Test\bin\Debug\测试流程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA1A121-0E60-4536-945D-3A538C96CC39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3BA9F0-5E9F-4BA5-8814-205446293A73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>设置时刻</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,23 +39,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正循环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>负循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1位定点小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2位定点小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,16 +448,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -419,154 +476,226 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>101</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>10.1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>1.01</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>1.123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>1.123</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>187</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/PLC Test/bin/Debug/测试流程/test.xlsx
+++ b/PLC Test/bin/Debug/测试流程/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\source\repos\PLC Test\PLC Test\bin\Debug\测试流程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3BA9F0-5E9F-4BA5-8814-205446293A73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A6544-39A6-4552-B8D1-36DD06D921E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
